--- a/SHB01D.xlsx
+++ b/SHB01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t/>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>IDM KCNG BUMBU 150G</t>
+  </si>
+  <si>
+    <t>20093182</t>
+  </si>
+  <si>
+    <t>IDM CANDY GUMMY 100</t>
   </si>
   <si>
     <t>20133914</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1317,13 +1323,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,10 +1346,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -1380,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1400,10 +1406,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,10 +1426,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -1460,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -1468,10 +1474,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1480,9 +1486,29 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SHB01D.xlsx
+++ b/SHB01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t/>
   </si>
@@ -67,57 +67,45 @@
     <t>6</t>
   </si>
   <si>
-    <t>20133907</t>
-  </si>
-  <si>
-    <t>IDM KRPK PSNG ASN 65</t>
+    <t>20086226</t>
+  </si>
+  <si>
+    <t>IDM KRPK PSNG MD 90</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20129568</t>
+  </si>
+  <si>
+    <t>IDM OTAKOTAK TGRI 75</t>
+  </si>
+  <si>
+    <t>20129566</t>
+  </si>
+  <si>
+    <t>IDM KR.SLNDK UDG 90</t>
+  </si>
+  <si>
+    <t>20136018</t>
+  </si>
+  <si>
+    <t>LRSST PILUS KEJU 65G</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20136019</t>
+  </si>
+  <si>
+    <t>LRSST PILUS BLDO 65G</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>20134369</t>
-  </si>
-  <si>
-    <t>IDM STK KNTNG BBQ 65</t>
-  </si>
-  <si>
-    <t>20086226</t>
-  </si>
-  <si>
-    <t>IDM KRPK PSNG MD 90</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20129568</t>
-  </si>
-  <si>
-    <t>IDM OTAKOTAK TGRI 75</t>
-  </si>
-  <si>
-    <t>20129566</t>
-  </si>
-  <si>
-    <t>IDM KR.SLNDK UDG 90</t>
-  </si>
-  <si>
-    <t>20136018</t>
-  </si>
-  <si>
-    <t>LRSST PILUS KEJU 65G</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20136019</t>
-  </si>
-  <si>
-    <t>LRSST PILUS BLDO 65G</t>
-  </si>
-  <si>
     <t>20088417</t>
   </si>
   <si>
@@ -140,12 +128,6 @@
   </si>
   <si>
     <t>IDM SUMPIA UDANG 125</t>
-  </si>
-  <si>
-    <t>20088535</t>
-  </si>
-  <si>
-    <t>IDM SNCK PANG2 200G</t>
   </si>
   <si>
     <t>20135618</t>
@@ -682,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -823,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -846,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -866,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -874,10 +856,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -886,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,30 +888,30 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,13 +925,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,13 +1025,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -1083,13 +1065,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,13 +1185,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>20</v>
@@ -1246,10 +1228,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,10 +1248,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,13 +1265,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,13 +1285,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -1346,10 +1328,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1348,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1406,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -1426,18 +1408,18 @@
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1446,69 +1428,9 @@
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
